--- a/Task. Cloud Concepts.xlsx
+++ b/Task. Cloud Concepts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F2AA75-F25F-4376-B4CE-3D55CEE6520A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96C5147-B851-4B79-908D-2E94B234CFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -357,7 +357,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -641,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,11 +909,6 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <v>3879</v>
-      </c>
-    </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>50</v>
@@ -1059,7 +1053,7 @@
       <c r="D40">
         <v>399</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1076,7 +1070,7 @@
       <c r="D41">
         <v>5000</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1093,7 +1087,7 @@
       <c r="D42">
         <v>1200</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1171,7 +1165,7 @@
       <c r="D54">
         <v>295556</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1188,7 +1182,7 @@
       <c r="D55">
         <v>73149</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1292,7 +1286,7 @@
       <c r="D64">
         <v>399</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1309,7 +1303,7 @@
       <c r="D65">
         <v>4000</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1326,7 +1320,7 @@
       <c r="D66">
         <v>1200</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1453,7 +1447,7 @@
       <c r="D81">
         <v>399</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" t="s">
         <v>47</v>
       </c>
     </row>
